--- a/_LIST.xlsx
+++ b/_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_REPOS\02_Beta-Me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F8731A-BC9D-4C8E-ADFD-D524F53BF132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84573340-3009-4A53-B124-332238EFEBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8C1B40B0-4099-4D58-BEE1-68DC37D19EEB}"/>
   </bookViews>
@@ -498,7 +498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +708,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -869,7 +875,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,6 +1000,9 @@
     <xf numFmtId="12" fontId="23" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="23" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1049,9 +1058,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFDDFE0"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFEBEB"/>
       <color rgb="FFFDF0E9"/>
       <color rgb="FFD1F3FF"/>
@@ -1206,404 +1215,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>204194</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>98597</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>655370</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="Group 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3CF255E-006A-5E1D-657A-330552D2DCD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks noChangeAspect="1"/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6210547" y="2597509"/>
-          <a:ext cx="6278235" cy="3397638"/>
-          <a:chOff x="7217832" y="1005417"/>
-          <a:chExt cx="8102158" cy="4370915"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="Group 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E7F9F1-8AF8-515D-013D-EA3BFC868273}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="7217832" y="1005417"/>
-            <a:ext cx="8102158" cy="4370915"/>
-            <a:chOff x="7217832" y="1005417"/>
-            <a:chExt cx="8102158" cy="4370915"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="4" name="Picture 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C11B6B-08C8-4E85-E095-4536A005528B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7217832" y="3604175"/>
-              <a:ext cx="8102158" cy="1772157"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Picture 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2A3A5B-9E65-1E27-4D78-F55720C1D73C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11600869" y="1019318"/>
-              <a:ext cx="3700508" cy="2495536"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="Picture 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1186ED-D702-B013-64CB-AE2C41B686D9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7228416" y="1005417"/>
-              <a:ext cx="4252756" cy="2505500"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47DC845-C2CE-CE57-BAF0-B8BB3B1A3CD8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8900584" y="1894417"/>
-            <a:ext cx="920750" cy="719666"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="3000" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>13</a:t>
-            </a:r>
-            <a:endParaRPr lang="LID4096" sz="3000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202243</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>182777</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>165503</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>22410</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="Group 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A917CE7D-A6E3-DFA1-12A9-323AC423A888}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks noChangeAspect="1"/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6208596" y="373277"/>
-          <a:ext cx="13802525" cy="2148045"/>
-          <a:chOff x="6062920" y="373279"/>
-          <a:chExt cx="12320179" cy="1917352"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="13" name="Picture 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B863952-3525-B11D-E75C-D7AAE803DB26}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6062920" y="381000"/>
-            <a:ext cx="6353199" cy="1905000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="TextBox 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEA4337-3096-4278-8164-242C8F333C1B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7126941" y="728382"/>
-            <a:ext cx="857625" cy="571866"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="3000" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>11</a:t>
-            </a:r>
-            <a:endParaRPr lang="LID4096" sz="3000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="Picture 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925D31B7-89BA-F778-FCA3-5AE43DCBC0D7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12539383" y="392206"/>
-            <a:ext cx="2830536" cy="1898425"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="16" name="Picture 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAFE12E-8CC6-5B98-15A0-E0F55CBA834A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15475322" y="373279"/>
-            <a:ext cx="2907777" cy="1870147"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>140175</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152630</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>532382</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>175041</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1619,14 +1242,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16663147" y="2655795"/>
+          <a:off x="16326971" y="2297206"/>
           <a:ext cx="3322646" cy="3256659"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1643,16 +1266,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>381617</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>73178</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>34234</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>39560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1668,14 +1291,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12830735" y="4045324"/>
+          <a:off x="11754970" y="3630706"/>
           <a:ext cx="2297823" cy="1978178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1698,10 +1321,10 @@
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>195587</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>145153</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246093</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1719,7 +1342,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6196854" y="6084794"/>
-          <a:ext cx="4375380" cy="2700094"/>
+          <a:ext cx="3697504" cy="2017059"/>
           <a:chOff x="6196854" y="6084794"/>
           <a:chExt cx="4375380" cy="2700094"/>
         </a:xfrm>
@@ -1759,7 +1382,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -1886,6 +1509,538 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>574411</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Group 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A5439F-80D9-E5FA-2266-24457C60F854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6241678" y="2644590"/>
+          <a:ext cx="5437762" cy="2969558"/>
+          <a:chOff x="6140824" y="2577353"/>
+          <a:chExt cx="6320116" cy="3451411"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="Group 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3CF255E-006A-5E1D-657A-330552D2DCD4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks noChangeAspect="1"/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6165724" y="2597509"/>
+            <a:ext cx="6278235" cy="3397638"/>
+            <a:chOff x="7217832" y="1005417"/>
+            <a:chExt cx="8102158" cy="4370915"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="7" name="Group 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E7F9F1-8AF8-515D-013D-EA3BFC868273}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="7217832" y="1005417"/>
+              <a:ext cx="8102158" cy="4370915"/>
+              <a:chOff x="7217832" y="1005417"/>
+              <a:chExt cx="8102158" cy="4370915"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="4" name="Picture 3">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C11B6B-08C8-4E85-E095-4536A005528B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7217832" y="3604175"/>
+                <a:ext cx="8102158" cy="1772157"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="5" name="Picture 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2A3A5B-9E65-1E27-4D78-F55720C1D73C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="11600870" y="1019318"/>
+                <a:ext cx="3700509" cy="2495536"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="6" name="Picture 5">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1186ED-D702-B013-64CB-AE2C41B686D9}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7228416" y="1005417"/>
+                <a:ext cx="4252756" cy="2505500"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47DC845-C2CE-CE57-BAF0-B8BB3B1A3CD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8900584" y="1894417"/>
+              <a:ext cx="920750" cy="719666"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="3000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>13</a:t>
+              </a:r>
+              <a:endParaRPr lang="LID4096" sz="3000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27B849B-534F-501E-7A1E-F918E241C852}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6140824" y="2577353"/>
+            <a:ext cx="6320116" cy="3451411"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="LID4096" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202243</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86416</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="Group 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E41036F-B318-2002-AA76-90EA4B3DF0D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6208596" y="373277"/>
+          <a:ext cx="11765639" cy="1831051"/>
+          <a:chOff x="6208596" y="373277"/>
+          <a:chExt cx="13802525" cy="2148045"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="Group 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A917CE7D-A6E3-DFA1-12A9-323AC423A888}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks noChangeAspect="1"/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6208596" y="373277"/>
+            <a:ext cx="13802525" cy="2148045"/>
+            <a:chOff x="6062920" y="373279"/>
+            <a:chExt cx="12320179" cy="1917352"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Picture 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B863952-3525-B11D-E75C-D7AAE803DB26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6062920" y="381000"/>
+              <a:ext cx="6353199" cy="1905000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEA4337-3096-4278-8164-242C8F333C1B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7126941" y="728382"/>
+              <a:ext cx="857625" cy="571866"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="3000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>11</a:t>
+              </a:r>
+              <a:endParaRPr lang="LID4096" sz="3000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Picture 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925D31B7-89BA-F778-FCA3-5AE43DCBC0D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12539383" y="392206"/>
+              <a:ext cx="2830536" cy="1898425"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Picture 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAFE12E-8CC6-5B98-15A0-E0F55CBA834A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15475322" y="373279"/>
+              <a:ext cx="2907777" cy="1870147"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4909E741-898A-4584-87D4-3BFAA5091A28}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6214782" y="387723"/>
+            <a:ext cx="13787718" cy="2122395"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="LID4096" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2195,7 +2350,7 @@
   <dimension ref="A1:AK273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G24"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,7 +3361,7 @@
       <c r="F23" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H23" s="14"/>
@@ -3255,7 +3410,7 @@
       <c r="F24" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H24" s="14"/>

--- a/_LIST.xlsx
+++ b/_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_REPOS\02_Beta-Me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84573340-3009-4A53-B124-332238EFEBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F06C40-E7C8-4FB8-BBCC-976516E93B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8C1B40B0-4099-4D58-BEE1-68DC37D19EEB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>✓</t>
   </si>
@@ -275,6 +275,48 @@
   </si>
   <si>
     <t>see</t>
+  </si>
+  <si>
+    <t>mfsetup</t>
+  </si>
+  <si>
+    <t>nfsetup</t>
+  </si>
+  <si>
+    <t>01_nerversink</t>
+  </si>
+  <si>
+    <t>02_pleasant lake</t>
+  </si>
+  <si>
+    <t>03_Shellmound_1</t>
+  </si>
+  <si>
+    <t>04_Shellmound_2</t>
+  </si>
+  <si>
+    <t>05_Plainfield</t>
+  </si>
+  <si>
+    <t>06_Freyberg</t>
+  </si>
+  <si>
+    <t>01b_Langevin</t>
+  </si>
+  <si>
+    <t>03_Jdhughes</t>
+  </si>
+  <si>
+    <t>04_Ruy_Symple</t>
+  </si>
+  <si>
+    <t>05_Madson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ... </t>
+  </si>
+  <si>
+    <t>02b_Mnfienen_Pleasant_Lake</t>
   </si>
 </sst>
 </file>
@@ -1087,13 +1129,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>210396</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>180972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1109,8 +1151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12442825" y="7387166"/>
-          <a:ext cx="4108238" cy="44027723"/>
+          <a:off x="248957" y="6376147"/>
+          <a:ext cx="5631615" cy="43446884"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1226,7 +1268,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>532382</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>175041</xdr:rowOff>
+      <xdr:rowOff>163836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1275,7 +1317,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>34234</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>39560</xdr:rowOff>
+      <xdr:rowOff>28355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1341,8 +1383,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6196854" y="6084794"/>
-          <a:ext cx="3697504" cy="2017059"/>
+          <a:off x="6196854" y="6095999"/>
+          <a:ext cx="3697504" cy="2005854"/>
           <a:chOff x="6196854" y="6084794"/>
           <a:chExt cx="4375380" cy="2700094"/>
         </a:xfrm>
@@ -1544,7 +1586,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6241678" y="2644590"/>
-          <a:ext cx="5437762" cy="2969558"/>
+          <a:ext cx="5437762" cy="2980763"/>
           <a:chOff x="6140824" y="2577353"/>
           <a:chExt cx="6320116" cy="3451411"/>
         </a:xfrm>
@@ -2347,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB24AA2-971A-4EF2-9A48-BA4FD53CA3CE}">
-  <dimension ref="A1:AK273"/>
+  <dimension ref="A1:AK278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,16 +3629,18 @@
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="14"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -3633,10 +3677,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="34"/>
+      <c r="C29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="34">
+        <v>1</v>
+      </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="31"/>
+      <c r="F29" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="G29" s="31"/>
       <c r="H29" s="14"/>
       <c r="I29" s="7"/>
@@ -3674,9 +3724,11 @@
         <v>1</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="D30" s="34"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
       <c r="H30" s="14"/>
@@ -3715,9 +3767,11 @@
         <v>1</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="D31" s="34"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
       <c r="H31" s="14"/>
@@ -3756,14 +3810,14 @@
         <v>1</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="4"/>
+      <c r="C32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -3794,19 +3848,19 @@
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
     </row>
-    <row r="33" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="4"/>
+      <c r="C33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -3837,21 +3891,19 @@
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
     </row>
-    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="19">
-        <v>1</v>
-      </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="4"/>
+      <c r="C34" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -3885,14 +3937,12 @@
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="4"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -3923,17 +3973,17 @@
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="4"/>
+      <c r="C36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -3967,14 +4017,14 @@
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="4"/>
+      <c r="C37" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -4008,14 +4058,14 @@
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="4"/>
+      <c r="C38" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -4049,14 +4099,14 @@
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="4"/>
+      <c r="C39" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -4090,14 +4140,14 @@
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="4"/>
+      <c r="C40" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="14"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -4131,14 +4181,14 @@
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="4"/>
+      <c r="C41" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="14"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -4172,14 +4222,12 @@
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="4"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="14"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -4213,14 +4261,12 @@
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="4"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -4254,14 +4300,12 @@
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="4"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="14"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -4295,14 +4339,12 @@
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="4"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="14"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -4336,14 +4378,12 @@
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="4"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="14"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -4377,13 +4417,13 @@
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
+      <c r="C47" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
       <c r="H47" s="4"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -4415,11 +4455,11 @@
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="9" t="s">
-        <v>37</v>
+      <c r="C48" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D48" s="39"/>
       <c r="E48" s="19"/>
@@ -4456,14 +4496,16 @@
       <c r="AJ48" s="7"/>
       <c r="AK48" s="7"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="9" t="s">
-        <v>38</v>
+      <c r="C49" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D49" s="39"/>
-      <c r="E49" s="19"/>
+      <c r="E49" s="19">
+        <v>1</v>
+      </c>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="4"/>
@@ -4501,7 +4543,7 @@
       <c r="A50" s="8"/>
       <c r="B50" s="14"/>
       <c r="C50" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D50" s="39"/>
       <c r="E50" s="19"/>
@@ -4542,7 +4584,7 @@
       <c r="A51" s="7"/>
       <c r="B51" s="14"/>
       <c r="C51" s="9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="19"/>
@@ -4583,7 +4625,7 @@
       <c r="A52" s="7"/>
       <c r="B52" s="14"/>
       <c r="C52" s="9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D52" s="39"/>
       <c r="E52" s="19"/>
@@ -4624,7 +4666,7 @@
       <c r="A53" s="7"/>
       <c r="B53" s="14"/>
       <c r="C53" s="9" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D53" s="39"/>
       <c r="E53" s="19"/>
@@ -4665,7 +4707,7 @@
       <c r="A54" s="7"/>
       <c r="B54" s="14"/>
       <c r="C54" s="9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D54" s="39"/>
       <c r="E54" s="19"/>
@@ -4706,7 +4748,7 @@
       <c r="A55" s="7"/>
       <c r="B55" s="14"/>
       <c r="C55" s="9" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D55" s="39"/>
       <c r="E55" s="19"/>
@@ -4747,7 +4789,7 @@
       <c r="A56" s="7"/>
       <c r="B56" s="14"/>
       <c r="C56" s="9" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D56" s="39"/>
       <c r="E56" s="19"/>
@@ -4788,7 +4830,7 @@
       <c r="A57" s="7"/>
       <c r="B57" s="14"/>
       <c r="C57" s="9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D57" s="39"/>
       <c r="E57" s="19"/>
@@ -4829,7 +4871,7 @@
       <c r="A58" s="8"/>
       <c r="B58" s="14"/>
       <c r="C58" s="9" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D58" s="39"/>
       <c r="E58" s="19"/>
@@ -4870,7 +4912,7 @@
       <c r="A59" s="8"/>
       <c r="B59" s="14"/>
       <c r="C59" s="9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="19"/>
@@ -4911,7 +4953,7 @@
       <c r="A60" s="8"/>
       <c r="B60" s="14"/>
       <c r="C60" s="9" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D60" s="39"/>
       <c r="E60" s="19"/>
@@ -4952,7 +4994,7 @@
       <c r="A61" s="8"/>
       <c r="B61" s="14"/>
       <c r="C61" s="9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D61" s="39"/>
       <c r="E61" s="19"/>
@@ -4993,7 +5035,7 @@
       <c r="A62" s="7"/>
       <c r="B62" s="14"/>
       <c r="C62" s="9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D62" s="39"/>
       <c r="E62" s="19"/>
@@ -5034,7 +5076,7 @@
       <c r="A63" s="7"/>
       <c r="B63" s="14"/>
       <c r="C63" s="9" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D63" s="39"/>
       <c r="E63" s="19"/>
@@ -5075,7 +5117,7 @@
       <c r="A64" s="7"/>
       <c r="B64" s="14"/>
       <c r="C64" s="9" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="19"/>
@@ -5116,7 +5158,7 @@
       <c r="A65" s="7"/>
       <c r="B65" s="14"/>
       <c r="C65" s="9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D65" s="39"/>
       <c r="E65" s="19"/>
@@ -5157,7 +5199,7 @@
       <c r="A66" s="7"/>
       <c r="B66" s="14"/>
       <c r="C66" s="9" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D66" s="39"/>
       <c r="E66" s="19"/>
@@ -5198,7 +5240,7 @@
       <c r="A67" s="7"/>
       <c r="B67" s="14"/>
       <c r="C67" s="9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D67" s="39"/>
       <c r="E67" s="19"/>
@@ -5239,7 +5281,7 @@
       <c r="A68" s="7"/>
       <c r="B68" s="14"/>
       <c r="C68" s="9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D68" s="39"/>
       <c r="E68" s="19"/>
@@ -5280,7 +5322,7 @@
       <c r="A69" s="7"/>
       <c r="B69" s="14"/>
       <c r="C69" s="9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D69" s="39"/>
       <c r="E69" s="19"/>
@@ -5321,7 +5363,7 @@
       <c r="A70" s="7"/>
       <c r="B70" s="14"/>
       <c r="C70" s="9" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D70" s="39"/>
       <c r="E70" s="19"/>
@@ -5361,8 +5403,8 @@
     <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="11">
-        <v>34</v>
+      <c r="C71" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D71" s="39"/>
       <c r="E71" s="19"/>
@@ -5402,8 +5444,8 @@
     <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="11" t="s">
-        <v>7</v>
+      <c r="C72" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D72" s="39"/>
       <c r="E72" s="19"/>
@@ -5443,8 +5485,8 @@
     <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="11">
-        <v>74</v>
+      <c r="C73" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D73" s="39"/>
       <c r="E73" s="19"/>
@@ -5484,7 +5526,9 @@
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="9"/>
+      <c r="C74" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="19"/>
       <c r="F74" s="32"/>
@@ -5520,11 +5564,11 @@
       <c r="AJ74" s="7"/>
       <c r="AK74" s="7"/>
     </row>
-    <row r="75" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="5" t="s">
-        <v>2</v>
+      <c r="C75" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D75" s="39"/>
       <c r="E75" s="19"/>
@@ -5561,11 +5605,11 @@
       <c r="AJ75" s="7"/>
       <c r="AK75" s="7"/>
     </row>
-    <row r="76" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="5" t="s">
-        <v>6</v>
+      <c r="C76" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D76" s="39"/>
       <c r="E76" s="19"/>
@@ -5606,7 +5650,7 @@
       <c r="A77" s="7"/>
       <c r="B77" s="14"/>
       <c r="C77" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D77" s="39"/>
       <c r="E77" s="19"/>
@@ -5647,7 +5691,7 @@
       <c r="A78" s="7"/>
       <c r="B78" s="14"/>
       <c r="C78" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D78" s="39"/>
       <c r="E78" s="19"/>
@@ -5688,7 +5732,7 @@
       <c r="A79" s="7"/>
       <c r="B79" s="14"/>
       <c r="C79" s="9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D79" s="39"/>
       <c r="E79" s="19"/>
@@ -5729,7 +5773,7 @@
       <c r="A80" s="7"/>
       <c r="B80" s="14"/>
       <c r="C80" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D80" s="39"/>
       <c r="E80" s="19"/>
@@ -5770,7 +5814,7 @@
       <c r="A81" s="7"/>
       <c r="B81" s="14"/>
       <c r="C81" s="9" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D81" s="39"/>
       <c r="E81" s="19"/>
@@ -5811,7 +5855,7 @@
       <c r="A82" s="7"/>
       <c r="B82" s="14"/>
       <c r="C82" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D82" s="39"/>
       <c r="E82" s="19"/>
@@ -5852,7 +5896,7 @@
       <c r="A83" s="7"/>
       <c r="B83" s="14"/>
       <c r="C83" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="19"/>
@@ -5893,7 +5937,7 @@
       <c r="A84" s="7"/>
       <c r="B84" s="14"/>
       <c r="C84" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="19"/>
@@ -5934,7 +5978,7 @@
       <c r="A85" s="7"/>
       <c r="B85" s="14"/>
       <c r="C85" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="19"/>
@@ -5974,8 +6018,8 @@
     <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="9" t="s">
-        <v>68</v>
+      <c r="C86" s="11">
+        <v>34</v>
       </c>
       <c r="D86" s="39"/>
       <c r="E86" s="19"/>
@@ -6015,8 +6059,8 @@
     <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="9" t="s">
-        <v>69</v>
+      <c r="C87" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="D87" s="39"/>
       <c r="E87" s="19"/>
@@ -6056,8 +6100,8 @@
     <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="9" t="s">
-        <v>70</v>
+      <c r="C88" s="11">
+        <v>74</v>
       </c>
       <c r="D88" s="39"/>
       <c r="E88" s="19"/>
@@ -6097,9 +6141,7 @@
     <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="C89" s="9"/>
       <c r="D89" s="39"/>
       <c r="E89" s="19"/>
       <c r="F89" s="32"/>
@@ -6135,10 +6177,12 @@
       <c r="AJ89" s="7"/>
       <c r="AK89" s="7"/>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="9"/>
+      <c r="C90" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="19"/>
       <c r="F90" s="32"/>
@@ -6174,15 +6218,17 @@
       <c r="AJ90" s="7"/>
       <c r="AK90" s="7"/>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="7"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="39"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="4"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -6215,13 +6261,15 @@
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="7"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="39"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="4"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -6254,13 +6302,15 @@
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="7"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="39"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="4"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -6293,13 +6343,15 @@
     </row>
     <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="7"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" s="39"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="4"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -6332,13 +6384,15 @@
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="7"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="39"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="4"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -6371,13 +6425,15 @@
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="7"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="39"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="4"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -6410,13 +6466,15 @@
     </row>
     <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="7"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" s="39"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="4"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
@@ -6449,13 +6507,15 @@
     </row>
     <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="7"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D98" s="39"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="4"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -6488,13 +6548,15 @@
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="7"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99" s="39"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="4"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -6527,13 +6589,15 @@
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="7"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="39"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="4"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -6566,13 +6630,15 @@
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="7"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" s="39"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="4"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -6605,13 +6671,15 @@
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="7"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102" s="39"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="4"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -6644,13 +6712,15 @@
     </row>
     <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="7"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" s="39"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="4"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -6683,13 +6753,15 @@
     </row>
     <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="7"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D104" s="39"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="4"/>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -6722,13 +6794,13 @@
     </row>
     <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="7"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="4"/>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -11363,13 +11435,13 @@
     </row>
     <row r="224" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="39"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="32"/>
-      <c r="G224" s="32"/>
-      <c r="H224" s="4"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="38"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="26"/>
+      <c r="G224" s="26"/>
+      <c r="H224" s="7"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
@@ -11402,13 +11474,13 @@
     </row>
     <row r="225" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="39"/>
-      <c r="E225" s="19"/>
-      <c r="F225" s="32"/>
-      <c r="G225" s="32"/>
-      <c r="H225" s="4"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="38"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="26"/>
+      <c r="G225" s="26"/>
+      <c r="H225" s="7"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
@@ -11441,13 +11513,13 @@
     </row>
     <row r="226" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="39"/>
-      <c r="E226" s="19"/>
-      <c r="F226" s="32"/>
-      <c r="G226" s="32"/>
-      <c r="H226" s="4"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="38"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="26"/>
+      <c r="G226" s="26"/>
+      <c r="H226" s="7"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
@@ -11480,13 +11552,13 @@
     </row>
     <row r="227" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="39"/>
-      <c r="E227" s="19"/>
-      <c r="F227" s="32"/>
-      <c r="G227" s="32"/>
-      <c r="H227" s="4"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="38"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="26"/>
+      <c r="G227" s="26"/>
+      <c r="H227" s="7"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
@@ -11519,13 +11591,13 @@
     </row>
     <row r="228" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="39"/>
-      <c r="E228" s="19"/>
-      <c r="F228" s="32"/>
-      <c r="G228" s="32"/>
-      <c r="H228" s="4"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="38"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="26"/>
+      <c r="G228" s="26"/>
+      <c r="H228" s="7"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
@@ -11558,13 +11630,13 @@
     </row>
     <row r="229" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="39"/>
-      <c r="E229" s="19"/>
-      <c r="F229" s="32"/>
-      <c r="G229" s="32"/>
-      <c r="H229" s="4"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="38"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="26"/>
+      <c r="G229" s="26"/>
+      <c r="H229" s="7"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
@@ -11597,13 +11669,13 @@
     </row>
     <row r="230" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="39"/>
-      <c r="E230" s="19"/>
-      <c r="F230" s="32"/>
-      <c r="G230" s="32"/>
-      <c r="H230" s="4"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="38"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="26"/>
+      <c r="G230" s="26"/>
+      <c r="H230" s="7"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
@@ -11636,13 +11708,13 @@
     </row>
     <row r="231" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="39"/>
-      <c r="E231" s="19"/>
-      <c r="F231" s="32"/>
-      <c r="G231" s="32"/>
-      <c r="H231" s="4"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="38"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="26"/>
+      <c r="G231" s="26"/>
+      <c r="H231" s="7"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
@@ -11675,13 +11747,13 @@
     </row>
     <row r="232" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="39"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="32"/>
-      <c r="G232" s="32"/>
-      <c r="H232" s="4"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="7"/>
+      <c r="D232" s="38"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="26"/>
+      <c r="G232" s="26"/>
+      <c r="H232" s="7"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
@@ -11714,13 +11786,13 @@
     </row>
     <row r="233" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="39"/>
-      <c r="E233" s="19"/>
-      <c r="F233" s="32"/>
-      <c r="G233" s="32"/>
-      <c r="H233" s="4"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="7"/>
+      <c r="D233" s="38"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="26"/>
+      <c r="G233" s="26"/>
+      <c r="H233" s="7"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
@@ -11753,13 +11825,13 @@
     </row>
     <row r="234" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="4"/>
-      <c r="D234" s="39"/>
-      <c r="E234" s="19"/>
-      <c r="F234" s="32"/>
-      <c r="G234" s="32"/>
-      <c r="H234" s="4"/>
+      <c r="B234" s="7"/>
+      <c r="C234" s="7"/>
+      <c r="D234" s="38"/>
+      <c r="E234" s="7"/>
+      <c r="F234" s="26"/>
+      <c r="G234" s="26"/>
+      <c r="H234" s="7"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
@@ -11792,13 +11864,13 @@
     </row>
     <row r="235" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="39"/>
-      <c r="E235" s="19"/>
-      <c r="F235" s="32"/>
-      <c r="G235" s="32"/>
-      <c r="H235" s="4"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="7"/>
+      <c r="D235" s="38"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="26"/>
+      <c r="G235" s="26"/>
+      <c r="H235" s="7"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
@@ -11831,13 +11903,13 @@
     </row>
     <row r="236" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="39"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="32"/>
-      <c r="G236" s="32"/>
-      <c r="H236" s="4"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="38"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="26"/>
+      <c r="G236" s="26"/>
+      <c r="H236" s="7"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
@@ -11870,13 +11942,13 @@
     </row>
     <row r="237" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="39"/>
-      <c r="E237" s="19"/>
-      <c r="F237" s="32"/>
-      <c r="G237" s="32"/>
-      <c r="H237" s="4"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="38"/>
+      <c r="E237" s="7"/>
+      <c r="F237" s="26"/>
+      <c r="G237" s="26"/>
+      <c r="H237" s="7"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
@@ -11909,13 +11981,13 @@
     </row>
     <row r="238" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="39"/>
-      <c r="E238" s="19"/>
-      <c r="F238" s="32"/>
-      <c r="G238" s="32"/>
-      <c r="H238" s="4"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="38"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="26"/>
+      <c r="G238" s="26"/>
+      <c r="H238" s="7"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
@@ -12026,16 +12098,10 @@
     </row>
     <row r="241" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
-      <c r="B241" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="4"/>
       <c r="D241" s="39"/>
-      <c r="E241" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="E241" s="19"/>
       <c r="F241" s="32"/>
       <c r="G241" s="32"/>
       <c r="H241" s="4"/>
@@ -12071,10 +12137,13 @@
     </row>
     <row r="242" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="4"/>
       <c r="D242" s="39"/>
       <c r="E242" s="19"/>
       <c r="F242" s="32"/>
       <c r="G242" s="32"/>
+      <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
@@ -12107,10 +12176,13 @@
     </row>
     <row r="243" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="4"/>
       <c r="D243" s="39"/>
       <c r="E243" s="19"/>
       <c r="F243" s="32"/>
       <c r="G243" s="32"/>
+      <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
@@ -12143,10 +12215,13 @@
     </row>
     <row r="244" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="4"/>
       <c r="D244" s="39"/>
       <c r="E244" s="19"/>
       <c r="F244" s="32"/>
       <c r="G244" s="32"/>
+      <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
@@ -12179,10 +12254,13 @@
     </row>
     <row r="245" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="4"/>
       <c r="D245" s="39"/>
       <c r="E245" s="19"/>
       <c r="F245" s="32"/>
       <c r="G245" s="32"/>
+      <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
@@ -12215,10 +12293,13 @@
     </row>
     <row r="246" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="4"/>
       <c r="D246" s="39"/>
       <c r="E246" s="19"/>
       <c r="F246" s="32"/>
       <c r="G246" s="32"/>
+      <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
@@ -12251,10 +12332,13 @@
     </row>
     <row r="247" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="4"/>
       <c r="D247" s="39"/>
       <c r="E247" s="19"/>
       <c r="F247" s="32"/>
       <c r="G247" s="32"/>
+      <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
@@ -12287,10 +12371,13 @@
     </row>
     <row r="248" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="4"/>
       <c r="D248" s="39"/>
       <c r="E248" s="19"/>
       <c r="F248" s="32"/>
       <c r="G248" s="32"/>
+      <c r="H248" s="4"/>
       <c r="AE248" s="4"/>
       <c r="AF248" s="4"/>
       <c r="AG248" s="4"/>
@@ -12301,10 +12388,13 @@
     </row>
     <row r="249" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="4"/>
       <c r="D249" s="39"/>
       <c r="E249" s="19"/>
       <c r="F249" s="32"/>
       <c r="G249" s="32"/>
+      <c r="H249" s="4"/>
       <c r="AE249" s="4"/>
       <c r="AF249" s="4"/>
       <c r="AG249" s="4"/>
@@ -12315,10 +12405,13 @@
     </row>
     <row r="250" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="4"/>
       <c r="D250" s="39"/>
       <c r="E250" s="19"/>
       <c r="F250" s="32"/>
       <c r="G250" s="32"/>
+      <c r="H250" s="4"/>
       <c r="AE250" s="4"/>
       <c r="AF250" s="4"/>
       <c r="AG250" s="4"/>
@@ -12329,10 +12422,13 @@
     </row>
     <row r="251" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="4"/>
       <c r="D251" s="39"/>
       <c r="E251" s="19"/>
       <c r="F251" s="32"/>
       <c r="G251" s="32"/>
+      <c r="H251" s="4"/>
       <c r="AE251" s="4"/>
       <c r="AF251" s="4"/>
       <c r="AG251" s="4"/>
@@ -12343,10 +12439,13 @@
     </row>
     <row r="252" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="4"/>
       <c r="D252" s="39"/>
       <c r="E252" s="19"/>
       <c r="F252" s="32"/>
       <c r="G252" s="32"/>
+      <c r="H252" s="4"/>
       <c r="AE252" s="4"/>
       <c r="AF252" s="4"/>
       <c r="AG252" s="4"/>
@@ -12357,10 +12456,13 @@
     </row>
     <row r="253" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="4"/>
       <c r="D253" s="39"/>
       <c r="E253" s="19"/>
       <c r="F253" s="32"/>
       <c r="G253" s="32"/>
+      <c r="H253" s="4"/>
       <c r="AE253" s="4"/>
       <c r="AF253" s="4"/>
       <c r="AG253" s="4"/>
@@ -12371,10 +12473,13 @@
     </row>
     <row r="254" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="4"/>
       <c r="D254" s="39"/>
       <c r="E254" s="19"/>
       <c r="F254" s="32"/>
       <c r="G254" s="32"/>
+      <c r="H254" s="4"/>
       <c r="AE254" s="4"/>
       <c r="AF254" s="4"/>
       <c r="AG254" s="4"/>
@@ -12385,10 +12490,13 @@
     </row>
     <row r="255" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="4"/>
       <c r="D255" s="39"/>
       <c r="E255" s="19"/>
       <c r="F255" s="32"/>
       <c r="G255" s="32"/>
+      <c r="H255" s="4"/>
       <c r="AE255" s="4"/>
       <c r="AF255" s="4"/>
       <c r="AG255" s="4"/>
@@ -12399,10 +12507,19 @@
     </row>
     <row r="256" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
+      <c r="B256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D256" s="39"/>
-      <c r="E256" s="19"/>
+      <c r="E256" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F256" s="32"/>
       <c r="G256" s="32"/>
+      <c r="H256" s="4"/>
       <c r="AE256" s="4"/>
       <c r="AF256" s="4"/>
       <c r="AG256" s="4"/>
@@ -12511,37 +12628,107 @@
     </row>
     <row r="264" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
+      <c r="D264" s="39"/>
+      <c r="E264" s="19"/>
+      <c r="F264" s="32"/>
+      <c r="G264" s="32"/>
     </row>
     <row r="265" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
+      <c r="D265" s="39"/>
+      <c r="E265" s="19"/>
+      <c r="F265" s="32"/>
+      <c r="G265" s="32"/>
     </row>
     <row r="266" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
+      <c r="D266" s="39"/>
+      <c r="E266" s="19"/>
+      <c r="F266" s="32"/>
+      <c r="G266" s="32"/>
     </row>
     <row r="267" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
+      <c r="D267" s="39"/>
+      <c r="E267" s="19"/>
+      <c r="F267" s="32"/>
+      <c r="G267" s="32"/>
     </row>
     <row r="268" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
+      <c r="D268" s="39"/>
+      <c r="E268" s="19"/>
+      <c r="F268" s="32"/>
+      <c r="G268" s="32"/>
     </row>
     <row r="269" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
+      <c r="D269" s="39"/>
+      <c r="E269" s="19"/>
+      <c r="F269" s="32"/>
+      <c r="G269" s="32"/>
     </row>
     <row r="270" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
+      <c r="D270" s="39"/>
+      <c r="E270" s="19"/>
+      <c r="F270" s="32"/>
+      <c r="G270" s="32"/>
     </row>
     <row r="271" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
+      <c r="D271" s="39"/>
+      <c r="E271" s="19"/>
+      <c r="F271" s="32"/>
+      <c r="G271" s="32"/>
     </row>
     <row r="272" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D272" s="39"/>
+      <c r="E272" s="19"/>
+      <c r="F272" s="32"/>
+      <c r="G272" s="32"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
+      <c r="D273" s="39"/>
+      <c r="E273" s="19"/>
+      <c r="F273" s="32"/>
+      <c r="G273" s="32"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D274" s="39"/>
+      <c r="E274" s="19"/>
+      <c r="F274" s="32"/>
+      <c r="G274" s="32"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D275" s="39"/>
+      <c r="E275" s="19"/>
+      <c r="F275" s="32"/>
+      <c r="G275" s="32"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D276" s="39"/>
+      <c r="E276" s="19"/>
+      <c r="F276" s="32"/>
+      <c r="G276" s="32"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D277" s="39"/>
+      <c r="E277" s="19"/>
+      <c r="F277" s="32"/>
+      <c r="G277" s="32"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D278" s="39"/>
+      <c r="E278" s="19"/>
+      <c r="F278" s="32"/>
+      <c r="G278" s="32"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A5">
-    <cfRule type="colorScale" priority="487">
+    <cfRule type="colorScale" priority="489">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12553,7 +12740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A50 I3:Y24">
-    <cfRule type="colorScale" priority="535">
+    <cfRule type="colorScale" priority="537">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12564,8 +12751,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107:A239 AE107:AK239 B91:AD223">
-    <cfRule type="colorScale" priority="532">
+  <conditionalFormatting sqref="B106:H238 A107:A239 AE107:AK239 I91:AD223">
+    <cfRule type="colorScale" priority="534">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12577,7 +12764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17 D4:D10 D12:D14">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12589,7 +12776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D26">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12600,13 +12787,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D263">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+  <conditionalFormatting sqref="D48:D278">
+    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z21">
-    <cfRule type="colorScale" priority="537">
+    <cfRule type="colorScale" priority="539">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12618,7 +12805,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA14">
-    <cfRule type="colorScale" priority="538">
+    <cfRule type="colorScale" priority="540">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12630,7 +12817,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AK7 AE12:AK30 AB3:AD14">
-    <cfRule type="colorScale" priority="539">
+    <cfRule type="colorScale" priority="541">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D34">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D39">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/_LIST.xlsx
+++ b/_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_REPOS\02_Beta-Me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F06C40-E7C8-4FB8-BBCC-976516E93B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153C0B23-15A1-418D-B1DE-9C4BF42A1D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8C1B40B0-4099-4D58-BEE1-68DC37D19EEB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
   <si>
     <t>✓</t>
   </si>
@@ -317,6 +317,27 @@
   </si>
   <si>
     <t>02b_Mnfienen_Pleasant_Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defalts </t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>block diagram</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>_01_SFRmaker_demo.ipynb</t>
+  </si>
+  <si>
+    <t>07_Tacho</t>
+  </si>
+  <si>
+    <t>sfrmaker.Lines.from_shapefile</t>
   </si>
 </sst>
 </file>
@@ -917,7 +938,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1044,6 +1065,9 @@
     </xf>
     <xf numFmtId="1" fontId="23" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1384,7 +1408,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6196854" y="6095999"/>
-          <a:ext cx="3697504" cy="2005854"/>
+          <a:ext cx="3697504" cy="2017060"/>
           <a:chOff x="6196854" y="6084794"/>
           <a:chExt cx="4375380" cy="2700094"/>
         </a:xfrm>
@@ -2392,7 +2416,7 @@
   <dimension ref="A1:AK278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3934,14 +3958,16 @@
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="34"/>
       <c r="E35" s="14"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="G35" s="29" t="s">
+        <v>102</v>
+      </c>
       <c r="H35" s="14"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -3982,7 +4008,9 @@
       <c r="D36" s="37"/>
       <c r="E36" s="5"/>
       <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="G36" s="29" t="s">
+        <v>8</v>
+      </c>
       <c r="H36" s="14"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -4020,10 +4048,16 @@
       <c r="C37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="34"/>
+      <c r="D37" s="43" t="s">
+        <v>99</v>
+      </c>
       <c r="E37" s="25"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
+      <c r="F37" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>101</v>
+      </c>
       <c r="H37" s="14"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -4222,7 +4256,9 @@
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="C42" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="D42" s="34"/>
       <c r="E42" s="14"/>
       <c r="F42" s="31"/>
@@ -4261,7 +4297,9 @@
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="C43" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="D43" s="34"/>
       <c r="E43" s="14"/>
       <c r="F43" s="31"/>
@@ -4339,11 +4377,15 @@
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
+      <c r="C45" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" s="43"/>
       <c r="H45" s="14"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -12728,7 +12770,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A5">
-    <cfRule type="colorScale" priority="489">
+    <cfRule type="colorScale" priority="492">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12740,6 +12782,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A50 I3:Y24">
+    <cfRule type="colorScale" priority="540">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106:H238 A107:A239 AE107:AK239 I91:AD223">
     <cfRule type="colorScale" priority="537">
       <colorScale>
         <cfvo type="min"/>
@@ -12751,20 +12805,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106:H238 A107:A239 AE107:AK239 I91:AD223">
-    <cfRule type="colorScale" priority="534">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17 D4:D10 D12:D14">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12776,6 +12818,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D26">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D34">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D39">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D278">
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:G37">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -12787,13 +12870,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D278">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z21">
-    <cfRule type="colorScale" priority="539">
+    <cfRule type="colorScale" priority="542">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12805,7 +12883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA14">
-    <cfRule type="colorScale" priority="540">
+    <cfRule type="colorScale" priority="543">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12817,7 +12895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AK7 AE12:AK30 AB3:AD14">
-    <cfRule type="colorScale" priority="541">
+    <cfRule type="colorScale" priority="544">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12828,7 +12906,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D34">
+  <conditionalFormatting sqref="D45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12840,7 +12918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D39">
+  <conditionalFormatting sqref="F45:G45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/_LIST.xlsx
+++ b/_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_REPOS\02_Beta-Me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153C0B23-15A1-418D-B1DE-9C4BF42A1D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6A47B3-143C-45B0-952D-92517C5780DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8C1B40B0-4099-4D58-BEE1-68DC37D19EEB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
   <si>
     <t>✓</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>sfrmaker.Lines.from_shapefile</t>
+  </si>
+  <si>
+    <t>QGIS</t>
   </si>
 </sst>
 </file>
@@ -2416,7 +2419,7 @@
   <dimension ref="A1:AK278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4302,7 +4305,9 @@
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="31"/>
+      <c r="F43" s="43" t="s">
+        <v>106</v>
+      </c>
       <c r="G43" s="31"/>
       <c r="H43" s="14"/>
       <c r="I43" s="7"/>
@@ -12770,7 +12775,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A5">
-    <cfRule type="colorScale" priority="492">
+    <cfRule type="colorScale" priority="493">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12782,7 +12787,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A50 I3:Y24">
-    <cfRule type="colorScale" priority="540">
+    <cfRule type="colorScale" priority="541">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12794,7 +12799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:H238 A107:A239 AE107:AK239 I91:AD223">
-    <cfRule type="colorScale" priority="537">
+    <cfRule type="colorScale" priority="538">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12806,7 +12811,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17 D4:D10 D12:D14">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12818,6 +12823,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D26">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -12829,7 +12846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D34">
+  <conditionalFormatting sqref="D37:D39">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -12841,7 +12858,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D39">
+  <conditionalFormatting sqref="D45">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D278">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:G37">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -12853,13 +12887,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D278">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:G37">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="F45:G45">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12871,7 +12900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z21">
-    <cfRule type="colorScale" priority="542">
+    <cfRule type="colorScale" priority="543">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12883,7 +12912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA14">
-    <cfRule type="colorScale" priority="543">
+    <cfRule type="colorScale" priority="544">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12895,7 +12924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AK7 AE12:AK30 AB3:AD14">
-    <cfRule type="colorScale" priority="544">
+    <cfRule type="colorScale" priority="545">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12906,19 +12935,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:G45">
+  <conditionalFormatting sqref="F43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/_LIST.xlsx
+++ b/_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_REPOS\02_Beta-Me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6A47B3-143C-45B0-952D-92517C5780DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A798ED1-0794-4C08-8221-CCC505D97006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8C1B40B0-4099-4D58-BEE1-68DC37D19EEB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
   <si>
     <t>✓</t>
   </si>
@@ -280,9 +280,6 @@
     <t>mfsetup</t>
   </si>
   <si>
-    <t>nfsetup</t>
-  </si>
-  <si>
     <t>01_nerversink</t>
   </si>
   <si>
@@ -304,43 +301,28 @@
     <t>01b_Langevin</t>
   </si>
   <si>
-    <t>03_Jdhughes</t>
-  </si>
-  <si>
-    <t>04_Ruy_Symple</t>
-  </si>
-  <si>
-    <t>05_Madson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ... </t>
-  </si>
-  <si>
-    <t>02b_Mnfienen_Pleasant_Lake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defalts </t>
-  </si>
-  <si>
-    <t>geometry</t>
-  </si>
-  <si>
-    <t>block diagram</t>
-  </si>
-  <si>
     <t>Working</t>
   </si>
   <si>
     <t>_01_SFRmaker_demo.ipynb</t>
   </si>
   <si>
-    <t>07_Tacho</t>
+    <t xml:space="preserve">       01a_build_base_watershed</t>
   </si>
   <si>
-    <t>sfrmaker.Lines.from_shapefile</t>
+    <t>SFRmaker</t>
   </si>
   <si>
-    <t>QGIS</t>
+    <t xml:space="preserve">      a01_SFRmaker_demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        02_Faz_dosTacho_Watershed</t>
+  </si>
+  <si>
+    <t>Tacho</t>
+  </si>
+  <si>
+    <t>nfsetuo</t>
   </si>
 </sst>
 </file>
@@ -564,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,12 +756,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -941,7 +917,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1064,9 +1040,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="23" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1295,7 +1268,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>532382</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>163836</xdr:rowOff>
+      <xdr:rowOff>152630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1344,7 +1317,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>34234</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>28355</xdr:rowOff>
+      <xdr:rowOff>17149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1410,8 +1383,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6196854" y="6095999"/>
-          <a:ext cx="3697504" cy="2017060"/>
+          <a:off x="6196854" y="6107205"/>
+          <a:ext cx="3697504" cy="2005854"/>
           <a:chOff x="6196854" y="6084794"/>
           <a:chExt cx="4375380" cy="2700094"/>
         </a:xfrm>
@@ -1613,7 +1586,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6241678" y="2644590"/>
-          <a:ext cx="5437762" cy="2980763"/>
+          <a:ext cx="5437762" cy="2991969"/>
           <a:chOff x="6140824" y="2577353"/>
           <a:chExt cx="6320116" cy="3451411"/>
         </a:xfrm>
@@ -2419,7 +2392,7 @@
   <dimension ref="A1:AK278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3430,7 +3403,7 @@
       <c r="F23" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="31" t="s">
         <v>80</v>
       </c>
       <c r="H23" s="14"/>
@@ -3479,7 +3452,7 @@
       <c r="F24" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="31" t="s">
         <v>80</v>
       </c>
       <c r="H24" s="14"/>
@@ -3615,7 +3588,7 @@
       <c r="AJ26" s="8"/>
       <c r="AK26" s="8"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
@@ -3624,7 +3597,9 @@
       <c r="D27" s="34"/>
       <c r="E27" s="14"/>
       <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="G27" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="H27" s="14"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -3662,12 +3637,14 @@
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="15" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="5"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="29" t="s">
+        <v>8</v>
+      </c>
       <c r="H28" s="14"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -3705,16 +3682,12 @@
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="34">
-        <v>1</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="14"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -3752,7 +3725,7 @@
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="25"/>
@@ -3795,7 +3768,7 @@
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="25"/>
@@ -3838,10 +3811,10 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D32" s="34"/>
-      <c r="E32" s="25"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
       <c r="H32" s="14"/>
@@ -3881,10 +3854,10 @@
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="14"/>
@@ -3924,10 +3897,10 @@
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D34" s="34"/>
-      <c r="E34" s="25"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
       <c r="H34" s="14"/>
@@ -3961,16 +3934,14 @@
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
     </row>
-    <row r="35" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="34"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="29" t="s">
-        <v>102</v>
-      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="14"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -4002,18 +3973,14 @@
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
     </row>
-    <row r="36" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="14"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -4045,22 +4012,16 @@
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="43" t="s">
-        <v>101</v>
-      </c>
+      <c r="C37" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
       <c r="H37" s="14"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -4096,10 +4057,10 @@
       <c r="A38" s="8"/>
       <c r="B38" s="14"/>
       <c r="C38" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D38" s="34"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
       <c r="H38" s="14"/>
@@ -4137,7 +4098,7 @@
       <c r="A39" s="8"/>
       <c r="B39" s="14"/>
       <c r="C39" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="25"/>
@@ -4178,10 +4139,10 @@
       <c r="A40" s="8"/>
       <c r="B40" s="14"/>
       <c r="C40" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D40" s="34"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="31"/>
       <c r="G40" s="31"/>
       <c r="H40" s="14"/>
@@ -4219,10 +4180,10 @@
       <c r="A41" s="8"/>
       <c r="B41" s="14"/>
       <c r="C41" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D41" s="34"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
       <c r="H41" s="14"/>
@@ -4260,10 +4221,10 @@
       <c r="A42" s="8"/>
       <c r="B42" s="14"/>
       <c r="C42" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D42" s="34"/>
-      <c r="E42" s="14"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="14"/>
@@ -4301,13 +4262,11 @@
       <c r="A43" s="8"/>
       <c r="B43" s="14"/>
       <c r="C43" s="10" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D43" s="34"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="43" t="s">
-        <v>106</v>
-      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="14"/>
       <c r="I43" s="7"/>
@@ -4343,11 +4302,13 @@
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
+      <c r="C44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="14"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -4382,15 +4343,11 @@
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="43"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
       <c r="H45" s="14"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -12775,7 +12732,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A5">
-    <cfRule type="colorScale" priority="493">
+    <cfRule type="colorScale" priority="494">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12787,7 +12744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A50 I3:Y24">
-    <cfRule type="colorScale" priority="541">
+    <cfRule type="colorScale" priority="542">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12799,7 +12756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:H238 A107:A239 AE107:AK239 I91:AD223">
-    <cfRule type="colorScale" priority="538">
+    <cfRule type="colorScale" priority="539">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12811,7 +12768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17 D4:D10 D12:D14">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12823,6 +12780,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D26">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:D43">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -12834,7 +12803,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D34">
+  <conditionalFormatting sqref="D29:D31">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -12846,7 +12815,36 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D39">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D278">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:G29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -12858,7 +12856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="F44:G44">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -12870,37 +12868,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D278">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:G37">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:G45">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z21">
-    <cfRule type="colorScale" priority="543">
+    <cfRule type="colorScale" priority="544">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12912,7 +12881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA14">
-    <cfRule type="colorScale" priority="544">
+    <cfRule type="colorScale" priority="545">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12924,7 +12893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AK7 AE12:AK30 AB3:AD14">
-    <cfRule type="colorScale" priority="545">
+    <cfRule type="colorScale" priority="546">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12935,7 +12904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="C45:G45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
